--- a/Terv/belsőVillamosTerv.xlsx
+++ b/Terv/belsőVillamosTerv.xlsx
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t xml:space="preserve">Hely</t>
   </si>
@@ -111,21 +112,21 @@
     <t xml:space="preserve">3x2.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Inverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x4</t>
+  </si>
+  <si>
     <t xml:space="preserve">WC</t>
   </si>
   <si>
-    <t xml:space="preserve">Inverter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vízmelegítő</t>
   </si>
   <si>
@@ -174,100 +175,109 @@
     <t xml:space="preserve">FD1</t>
   </si>
   <si>
-    <t xml:space="preserve">Gardrób világítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamra világítás</t>
+    <t xml:space="preserve">Gardrób világítás tápegységek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamra világítás tápegység</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konyha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sütő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Főzőlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bojler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pultvilágítások (3 LED csík)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosogatógép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elszívó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hűtő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zsaluzia motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fürdő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Törülközőszárító</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tükörvilágítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosógép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szárítógép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elszívó ventilátor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTSZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Háló</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF4</t>
   </si>
   <si>
     <t xml:space="preserve">Mennyezet világítás</t>
   </si>
   <si>
-    <t xml:space="preserve">Konyha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sütő</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20x3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Főzőlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bojler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pultvilágítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosogatógép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elszívó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hűtő</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zsaluzia motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FZS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fürdő</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Törülközőszárító</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tükörvilágítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosógép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szárítógép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FZS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Háló</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF4</t>
-  </si>
-  <si>
     <t xml:space="preserve">FV2</t>
   </si>
   <si>
     <t xml:space="preserve">Olvasó világítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gardrób világítás tápegység</t>
   </si>
   <si>
     <t xml:space="preserve">FD2</t>
@@ -360,24 +370,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66CC00"/>
-        <bgColor rgb="FF66FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF193300"/>
-        <bgColor rgb="FF333300"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -394,7 +392,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF00"/>
-        <bgColor rgb="FF66CC00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,7 +405,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,12 +429,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -571,35 +563,33 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Staurday" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Sunday" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF3333"/>
-      <rgbColor rgb="FF66FF00"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -638,7 +628,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF66CC00"/>
+      <rgbColor rgb="FF66FF00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -646,7 +636,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF193300"/>
+      <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -668,110 +658,110 @@
   </sheetPr>
   <dimension ref="A1:AMB51"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="6" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="8" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="9" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="23" min="18" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="30" min="25" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="37" min="32" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="44" min="39" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="51" min="46" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="58" min="53" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="65" min="60" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="72" min="67" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="79" min="74" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="86" min="81" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="93" min="88" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="100" min="95" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="107" min="102" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="114" min="109" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="121" min="116" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="128" min="123" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="135" min="130" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="136" min="136" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="142" min="137" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="149" min="144" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="156" min="151" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="163" min="158" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="170" min="165" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="171" min="171" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="177" min="172" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="184" min="179" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="185" min="185" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="191" min="186" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="192" min="192" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="198" min="193" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="199" min="199" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="205" min="200" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="206" min="206" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="212" min="207" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="213" min="213" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="219" min="214" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="220" min="220" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="226" min="221" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="227" min="227" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="233" min="228" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="234" min="234" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="240" min="235" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="241" min="241" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="247" min="242" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="248" min="248" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="254" min="249" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="261" min="256" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="268" min="263" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="269" min="269" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="275" min="270" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="276" min="276" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="282" min="277" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="283" min="283" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="289" min="284" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="290" min="290" style="10" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="929" min="291" style="1" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1016" min="930" style="8" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="11" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.4651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="6" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="8" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="9" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="23" min="18" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="30" min="25" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="37" min="32" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="44" min="39" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="51" min="46" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="58" min="53" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="65" min="60" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="72" min="67" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="79" min="74" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="86" min="81" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="93" min="88" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="100" min="95" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="107" min="102" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="114" min="109" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="121" min="116" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="128" min="123" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="135" min="130" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="136" min="136" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="142" min="137" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="149" min="144" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="156" min="151" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="163" min="158" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="170" min="165" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="171" min="171" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="177" min="172" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="184" min="179" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="185" min="185" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="191" min="186" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="198" min="193" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="205" min="200" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="206" min="206" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="212" min="207" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="213" min="213" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="219" min="214" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="220" min="220" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="226" min="221" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="227" min="227" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="233" min="228" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="234" min="234" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="240" min="235" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="241" min="241" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="247" min="242" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="248" min="248" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="254" min="249" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="261" min="256" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="268" min="263" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="269" min="269" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="275" min="270" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="276" min="276" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="282" min="277" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="283" min="283" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="289" min="284" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="290" min="290" style="10" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="929" min="291" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1016" min="930" style="8" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="11" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,23 +1100,23 @@
       <c r="E3" s="24"/>
       <c r="F3" s="13" t="n">
         <f aca="false">SUM(Villamos!G3:I3)</f>
-        <v>30.304</v>
+        <v>30.392</v>
       </c>
       <c r="G3" s="23" t="n">
         <f aca="false">SUM(Villamos!G$6:G$303)</f>
-        <v>10.1686666666667</v>
+        <v>10.0816666666667</v>
       </c>
       <c r="H3" s="23" t="n">
         <f aca="false">SUM(Villamos!H$6:H$303)</f>
-        <v>9.67466666666667</v>
+        <v>9.64966666666667</v>
       </c>
       <c r="I3" s="23" t="n">
         <f aca="false">SUM(Villamos!I$6:I$303)</f>
-        <v>10.4606666666667</v>
+        <v>10.6606666666667</v>
       </c>
       <c r="J3" s="22" t="n">
         <f aca="false">SUM(Villamos!G3:I3)</f>
-        <v>30.304</v>
+        <v>30.392</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="25"/>
@@ -1269,7 +1259,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="23" t="n">
         <f aca="false">COUNTIF(Villamos!G5:G77,"&lt;&gt;")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="23" t="n">
         <f aca="false">COUNTIF(Villamos!H5:H77,"&lt;&gt;")</f>
@@ -1277,7 +1267,7 @@
       </c>
       <c r="I4" s="23" t="n">
         <f aca="false">COUNTIF(Villamos!I5:I77,"&lt;&gt;")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -1794,16 +1784,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="7"/>
@@ -1814,13 +1804,13 @@
         <v/>
       </c>
       <c r="L8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
@@ -1916,7 +1906,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>28</v>
@@ -2041,7 +2031,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>31</v>
@@ -2051,11 +2041,11 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7" t="n">
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
       <c r="G10" s="7" t="n">
         <f aca="false">Villamos!$F10*Villamos!$D10</f>
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="11"/>
@@ -2163,7 +2153,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>35</v>
@@ -2193,10 +2183,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O11" s="0"/>
       <c r="AIT11" s="11"/>
@@ -2289,7 +2279,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>37</v>
@@ -2663,15 +2653,16 @@
         <v>44</v>
       </c>
       <c r="D15" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="28" t="n">
-        <v>0.0035</v>
+        <f aca="false">0.01+0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">Villamos!$F15*Villamos!$D15</f>
-        <v>0.0105</v>
+        <v>0.02</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="11"/>
@@ -2785,15 +2776,15 @@
         <v>45</v>
       </c>
       <c r="D16" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="28" t="n">
-        <v>0.0035</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="7" t="n">
         <f aca="false">Villamos!$F16*Villamos!$D16</f>
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="11"/>
@@ -2901,36 +2892,44 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="28" t="n">
-        <v>0.018</v>
+      <c r="E17" s="31" t="n">
+        <v>567</v>
+      </c>
+      <c r="F17" s="30" t="n">
+        <v>3.6</v>
       </c>
       <c r="G17" s="7" t="n">
-        <f aca="false">Villamos!$F17*Villamos!$D17</f>
-        <v>0.018</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+        <f aca="false">Villamos!$F17*Villamos!$D17/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">Villamos!$F17*Villamos!$D17/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">Villamos!$F17*Villamos!$D17/3</f>
+        <v>1.2</v>
+      </c>
       <c r="K17" s="29" t="str">
         <f aca="false">IF(Villamos!G17&lt;&gt;"","L1","")&amp;IF(Villamos!H17&lt;&gt;"","L2","")&amp;IF(Villamos!I17&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L1L2L3</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O17" s="0"/>
       <c r="AIT17" s="11"/>
@@ -3023,44 +3022,44 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="30" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="31" t="n">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="F18" s="30" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="G18" s="7" t="n">
         <f aca="false">Villamos!$F18*Villamos!$D18/3</f>
-        <v>1.2</v>
+        <v>2.46666666666667</v>
       </c>
       <c r="H18" s="7" t="n">
         <f aca="false">Villamos!$F18*Villamos!$D18/3</f>
-        <v>1.2</v>
+        <v>2.46666666666667</v>
       </c>
       <c r="I18" s="7" t="n">
         <f aca="false">Villamos!$F18*Villamos!$D18/3</f>
-        <v>1.2</v>
+        <v>2.46666666666667</v>
       </c>
       <c r="K18" s="29" t="str">
         <f aca="false">IF(Villamos!G18&lt;&gt;"","L1","")&amp;IF(Villamos!H18&lt;&gt;"","L2","")&amp;IF(Villamos!I18&lt;&gt;"","L3","")</f>
         <v>L1L2L3</v>
       </c>
       <c r="L18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="O18" s="0"/>
       <c r="AIT18" s="11"/>
@@ -3153,44 +3152,40 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="30" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="31" t="n">
-        <v>55</v>
-      </c>
-      <c r="F19" s="30" t="n">
-        <v>7.4</v>
+      <c r="E19" s="4" t="n">
+        <f aca="false">3*1250+3*1000+1*3250+2*500+2*3750+1*1000</f>
+        <v>19500</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">Villamos!D19*160*300*Villamos!E19/1000/1000/1000</f>
+        <v>0.936</v>
       </c>
       <c r="G19" s="7" t="n">
-        <f aca="false">Villamos!$F19*Villamos!$D19/3</f>
-        <v>2.46666666666667</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <f aca="false">Villamos!$F19*Villamos!$D19/3</f>
-        <v>2.46666666666667</v>
-      </c>
-      <c r="I19" s="7" t="n">
-        <f aca="false">Villamos!$F19*Villamos!$D19/3</f>
-        <v>2.46666666666667</v>
-      </c>
+        <f aca="false">Villamos!$F19*Villamos!$D19</f>
+        <v>0.936</v>
+      </c>
+      <c r="H19" s="0"/>
+      <c r="I19" s="11"/>
       <c r="K19" s="29" t="str">
         <f aca="false">IF(Villamos!G19&lt;&gt;"","L1","")&amp;IF(Villamos!H19&lt;&gt;"","L2","")&amp;IF(Villamos!I19&lt;&gt;"","L3","")</f>
-        <v>L1L2L3</v>
+        <v>L1</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O19" s="0"/>
       <c r="AIT19" s="11"/>
@@ -3283,36 +3278,32 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="D20" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">3*1250+3*1000+1*3250+2*500+2*3750+1*1000</f>
-        <v>19500</v>
-      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="7" t="n">
-        <f aca="false">Villamos!D20*160*300*Villamos!E20/1000/1000/1000</f>
-        <v>0.936</v>
+        <v>1.5</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">Villamos!$F20*Villamos!$D20</f>
-        <v>0.936</v>
-      </c>
-      <c r="H20" s="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="K20" s="29" t="str">
         <f aca="false">IF(Villamos!G20&lt;&gt;"","L1","")&amp;IF(Villamos!H20&lt;&gt;"","L2","")&amp;IF(Villamos!I20&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -3409,36 +3400,36 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="7" t="n">
-        <v>1.5</v>
+      <c r="F21" s="28" t="n">
+        <v>0.023</v>
       </c>
       <c r="G21" s="7" t="n">
         <f aca="false">Villamos!$F21*Villamos!$D21</f>
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="11"/>
+        <v>0.023</v>
+      </c>
+      <c r="H21" s="0"/>
       <c r="I21" s="11"/>
       <c r="K21" s="29" t="str">
         <f aca="false">IF(Villamos!G21&lt;&gt;"","L1","")&amp;IF(Villamos!H21&lt;&gt;"","L2","")&amp;IF(Villamos!I21&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O21" s="0"/>
       <c r="AIT21" s="11"/>
@@ -3531,10 +3522,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="28" t="n">
         <v>1</v>
@@ -3653,36 +3644,36 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="31"/>
       <c r="F23" s="28" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G23" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="7" t="n">
         <f aca="false">Villamos!$F23*Villamos!$D23</f>
-        <v>0.018</v>
-      </c>
-      <c r="H23" s="0"/>
-      <c r="I23" s="11"/>
+        <v>0.9</v>
+      </c>
       <c r="K23" s="29" t="str">
         <f aca="false">IF(Villamos!G23&lt;&gt;"","L1","")&amp;IF(Villamos!H23&lt;&gt;"","L2","")&amp;IF(Villamos!I23&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L3</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O23" s="0"/>
       <c r="AIT23" s="11"/>
@@ -3775,32 +3766,32 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="E24" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="28" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="7" t="n">
+      <c r="H24" s="7" t="n">
         <f aca="false">Villamos!$F24*Villamos!$D24</f>
-        <v>0.9</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="11"/>
       <c r="K24" s="29" t="str">
         <f aca="false">IF(Villamos!G24&lt;&gt;"","L1","")&amp;IF(Villamos!H24&lt;&gt;"","L2","")&amp;IF(Villamos!I24&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L2</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3897,22 +3888,22 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="28" t="n">
-        <v>1.5</v>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30" t="n">
+        <v>0.5</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="7" t="n">
+      <c r="H25" s="32" t="n">
         <f aca="false">Villamos!$F25*Villamos!$D25</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="11"/>
       <c r="K25" s="29" t="str">
@@ -3920,7 +3911,7 @@
         <v>L2</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>21</v>
@@ -4018,8 +4009,8 @@
       <c r="AMB25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8" t="s">
-        <v>47</v>
+      <c r="B26" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>59</v>
@@ -4029,22 +4020,22 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="30" t="n">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="32" t="n">
+      <c r="H26" s="0"/>
+      <c r="I26" s="32" t="n">
         <f aca="false">Villamos!$F26*Villamos!$D26</f>
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="11"/>
+        <v>0.06</v>
+      </c>
       <c r="K26" s="29" t="str">
         <f aca="false">IF(Villamos!G26&lt;&gt;"","L1","")&amp;IF(Villamos!H26&lt;&gt;"","L2","")&amp;IF(Villamos!I26&lt;&gt;"","L3","")</f>
-        <v>L2</v>
+        <v>L3</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -4141,7 +4132,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>60</v>
@@ -4151,26 +4142,26 @@
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="30" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="32" t="n">
+      <c r="H27" s="11"/>
+      <c r="I27" s="7" t="n">
         <f aca="false">Villamos!$F27*Villamos!$D27</f>
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="K27" s="29" t="str">
         <f aca="false">IF(Villamos!G27&lt;&gt;"","L1","")&amp;IF(Villamos!H27&lt;&gt;"","L2","")&amp;IF(Villamos!I27&lt;&gt;"","L3","")</f>
         <v>L3</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O27" s="0"/>
       <c r="AIT27" s="11"/>
@@ -4263,33 +4254,37 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="G28" s="11"/>
+      <c r="E28" s="4" t="n">
+        <f aca="false">3*2000+1*500</f>
+        <v>6500</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">Villamos!D28*160*300*Villamos!E28/1000/1000/1000</f>
+        <v>0.312</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">Villamos!$F28*Villamos!$D28</f>
+        <v>0.312</v>
+      </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="7" t="n">
-        <f aca="false">Villamos!$F28*Villamos!$D28</f>
-        <v>0.095</v>
-      </c>
+      <c r="I28" s="0"/>
       <c r="K28" s="29" t="str">
         <f aca="false">IF(Villamos!G28&lt;&gt;"","L1","")&amp;IF(Villamos!H28&lt;&gt;"","L2","")&amp;IF(Villamos!I28&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L1</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>34</v>
@@ -4385,36 +4380,32 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">3*2000+1*500</f>
-        <v>6500</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <f aca="false">Villamos!D29*160*300*Villamos!E29/1000/1000/1000</f>
-        <v>0.312</v>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30" t="n">
+        <v>1.5</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">Villamos!$F29*Villamos!$D29</f>
-        <v>0.312</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="0"/>
+      <c r="I29" s="11"/>
       <c r="K29" s="29" t="str">
         <f aca="false">IF(Villamos!G29&lt;&gt;"","L1","")&amp;IF(Villamos!H29&lt;&gt;"","L2","")&amp;IF(Villamos!I29&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -4511,36 +4502,36 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30" t="n">
-        <v>1.5</v>
+      <c r="E30" s="11"/>
+      <c r="F30" s="28" t="n">
+        <v>0.01</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">Villamos!$F30*Villamos!$D30</f>
-        <v>1.5</v>
+        <v>0.01</v>
       </c>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="0"/>
       <c r="K30" s="29" t="str">
         <f aca="false">IF(Villamos!G30&lt;&gt;"","L1","")&amp;IF(Villamos!H30&lt;&gt;"","L2","")&amp;IF(Villamos!I30&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O30" s="0"/>
       <c r="AIT30" s="11"/>
@@ -4633,21 +4624,21 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="D31" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="28" t="n">
-        <v>0.04</v>
+        <v>0.018</v>
       </c>
       <c r="G31" s="7" t="n">
         <f aca="false">Villamos!$F31*Villamos!$D31</f>
-        <v>0.12</v>
+        <v>0.018</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="0"/>
@@ -4755,36 +4746,36 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D32" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="28" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G32" s="7" t="n">
+      <c r="E32" s="31"/>
+      <c r="F32" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="32" t="n">
         <f aca="false">Villamos!$F32*Villamos!$D32</f>
-        <v>0.018</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="0"/>
+        <v>1.5</v>
+      </c>
       <c r="K32" s="29" t="str">
         <f aca="false">IF(Villamos!G32&lt;&gt;"","L1","")&amp;IF(Villamos!H32&lt;&gt;"","L2","")&amp;IF(Villamos!I32&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L3</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O32" s="0"/>
       <c r="AIT32" s="11"/>
@@ -4877,7 +4868,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>69</v>
@@ -4999,23 +4990,23 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D34" s="28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="31"/>
-      <c r="F34" s="30" t="n">
-        <v>1.5</v>
+      <c r="F34" s="28" t="n">
+        <v>0.1</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="32" t="n">
+      <c r="I34" s="7" t="n">
         <f aca="false">Villamos!$F34*Villamos!$D34</f>
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="K34" s="29" t="str">
         <f aca="false">IF(Villamos!G34&lt;&gt;"","L1","")&amp;IF(Villamos!H34&lt;&gt;"","L2","")&amp;IF(Villamos!I34&lt;&gt;"","L3","")</f>
@@ -5024,7 +5015,7 @@
       <c r="L34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -5121,36 +5112,36 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="D35" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="28" t="n">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="30" t="n">
+        <v>0.095</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="7" t="n">
         <f aca="false">Villamos!$F35*Villamos!$D35</f>
-        <v>0.4</v>
+        <v>0.095</v>
       </c>
       <c r="K35" s="29" t="str">
         <f aca="false">IF(Villamos!G35&lt;&gt;"","L1","")&amp;IF(Villamos!H35&lt;&gt;"","L2","")&amp;IF(Villamos!I35&lt;&gt;"","L3","")</f>
         <v>L3</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>21</v>
+        <v>70</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O35" s="0"/>
       <c r="AIT35" s="11"/>
@@ -5243,33 +5234,33 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D36" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="30" t="n">
-        <v>0.095</v>
+        <v>0.2</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="7" t="n">
         <f aca="false">Villamos!$F36*Villamos!$D36</f>
-        <v>0.095</v>
+        <v>0.2</v>
       </c>
       <c r="K36" s="29" t="str">
         <f aca="false">IF(Villamos!G36&lt;&gt;"","L1","")&amp;IF(Villamos!H36&lt;&gt;"","L2","")&amp;IF(Villamos!I36&lt;&gt;"","L3","")</f>
         <v>L3</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>34</v>
@@ -5365,7 +5356,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>35</v>
@@ -5392,13 +5383,13 @@
         <v>L2</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O37" s="0"/>
       <c r="AIT37" s="11"/>
@@ -5491,22 +5482,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D38" s="28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="28" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="7" t="n">
         <f aca="false">Villamos!$F38*Villamos!$D38</f>
-        <v>0.036</v>
+        <v>0.024</v>
       </c>
       <c r="I38" s="11"/>
       <c r="K38" s="29" t="str">
@@ -5514,7 +5505,7 @@
         <v>L2</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>33</v>
@@ -5613,10 +5604,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D39" s="28" t="n">
         <v>2</v>
@@ -5636,7 +5627,7 @@
         <v>L2</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>33</v>
@@ -5735,22 +5726,22 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D40" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="28" t="n">
-        <v>0.0035</v>
+        <v>0.01</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="7" t="n">
         <f aca="false">Villamos!$F40*Villamos!$D40</f>
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="I40" s="11"/>
       <c r="K40" s="29" t="str">
@@ -5758,7 +5749,7 @@
         <v>L2</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>33</v>
@@ -5857,7 +5848,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>42</v>
@@ -5880,7 +5871,7 @@
         <v>L2</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>21</v>
@@ -5979,10 +5970,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" s="28" t="n">
         <v>1</v>
@@ -6002,7 +5993,7 @@
         <v>L2</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>21</v>
@@ -6101,10 +6092,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="28" t="n">
         <v>1</v>
@@ -6124,10 +6115,10 @@
         <v>L2</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>34</v>
@@ -6223,7 +6214,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>35</v>
@@ -6250,13 +6241,13 @@
         <v>L3</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O44" s="0"/>
       <c r="AIT44" s="11"/>
@@ -6349,22 +6340,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D45" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="28" t="n">
-        <v>0.0035</v>
+        <v>0.01</v>
       </c>
       <c r="G45" s="0"/>
       <c r="H45" s="7" t="n">
         <f aca="false">Villamos!$F45*Villamos!$D45</f>
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="I45" s="11"/>
       <c r="K45" s="29" t="str">
@@ -6372,7 +6363,7 @@
         <v>L2</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>33</v>
@@ -6470,10 +6461,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" s="28" t="n">
         <v>1</v>
@@ -6493,7 +6484,7 @@
         <v>L2</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>21</v>
@@ -6591,7 +6582,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>42</v>
@@ -6614,7 +6605,7 @@
         <v>L2</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>21</v>
@@ -6712,10 +6703,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="28" t="n">
         <v>2</v>
@@ -6735,10 +6726,10 @@
         <v>L1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>34</v>
@@ -6833,28 +6824,28 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D49" s="28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="G49" s="0"/>
       <c r="H49" s="7" t="n">
         <f aca="false">Villamos!$F49*Villamos!$D49</f>
-        <v>0.036</v>
+        <v>0.024</v>
       </c>
       <c r="K49" s="29" t="str">
         <f aca="false">IF(Villamos!G49&lt;&gt;"","L1","")&amp;IF(Villamos!H49&lt;&gt;"","L2","")&amp;IF(Villamos!I49&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>33</v>
@@ -6952,7 +6943,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>31</v>
@@ -6961,11 +6952,11 @@
         <v>2</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
       <c r="G50" s="7" t="n">
         <f aca="false">Villamos!$F50*Villamos!$D50</f>
-        <v>0.018</v>
+        <v>0.036</v>
       </c>
       <c r="H50" s="7"/>
       <c r="K50" s="29" t="str">
@@ -6973,7 +6964,7 @@
         <v>L1</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>21</v>
@@ -7071,7 +7062,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>42</v>
@@ -7092,7 +7083,7 @@
         <v>L1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>21</v>
@@ -7214,7 +7205,7 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -7224,7 +7215,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,7 +7253,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">'Lapos cső'!C1-'Lapos cső'!C3</f>
@@ -7582,19 +7573,19 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>16</v>
@@ -7602,23 +7593,23 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>41</v>
@@ -7629,7 +7620,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7637,17 +7628,17 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Terv/belsőVillamosTerv.xlsx
+++ b/Terv/belsőVillamosTerv.xlsx
@@ -13,23 +13,25 @@
     <sheet name="Listák" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
     <definedName function="false" hidden="false" name="hely" vbProcedure="false">Listák!$B$1:$B$9</definedName>
-    <definedName function="false" hidden="false" name="hossz" vbProcedure="false">Villamos!$L$6:$L$156</definedName>
-    <definedName function="false" hidden="false" name="kabel" vbProcedure="false">Villamos!$J$6:$J$156</definedName>
+    <definedName function="false" hidden="false" name="hossz" vbProcedure="false">Villamos!$L$6:$L$154</definedName>
+    <definedName function="false" hidden="false" name="kabel" vbProcedure="false">Villamos!$J$6:$J$154</definedName>
     <definedName function="false" hidden="false" name="kivitel" vbProcedure="false">Listák!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Villamos!$B$5:$I$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Villamos!$B$5:$I$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Villamos!$B$5:$I$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Villamos!$B$5:$I$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Villamos!$B$5:$N$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="91">
   <si>
     <t xml:space="preserve">Hely</t>
   </si>
@@ -148,151 +150,148 @@
     <t xml:space="preserve">3x1.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Rekuperátor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Előszoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dugalj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gardrób világítás tápegységek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamra világítás tápegység</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konyha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sütő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Főzőlap</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fűtőfilm</t>
   </si>
   <si>
     <t xml:space="preserve">FF1</t>
   </si>
   <si>
-    <t xml:space="preserve">Rekuperátor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Előszoba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dugalj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gardrób világítás tápegységek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamra világítás tápegység</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konyha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sütő</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20x3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Főzőlap</t>
+    <t xml:space="preserve">Pultvilágítások (3 LED csík)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosogatógép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elszívó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hűtő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zsaluzia motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fürdő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bojler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBO</t>
   </si>
   <si>
     <t xml:space="preserve">FF2</t>
   </si>
   <si>
-    <t xml:space="preserve">Bojler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pultvilágítások (3 LED csík)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosogatógép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elszívó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hűtő</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zsaluzia motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FZS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fürdő</t>
+    <t xml:space="preserve">Törülközőszárító</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tükörvilágítás (1 LED csík)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosó-szárító gép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elszívó ventilátor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTSZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Háló</t>
   </si>
   <si>
     <t xml:space="preserve">FF3</t>
   </si>
   <si>
-    <t xml:space="preserve">Törülközőszárító</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tükörvilágítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosógép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szárítógép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FZS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elszívó ventilátor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTSZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Háló</t>
+    <t xml:space="preserve">Mennyezet világítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olvasó világítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gardrób világítás tápegység</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nappali</t>
   </si>
   <si>
     <t xml:space="preserve">FF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mennyezet világítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olvasó világítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gardrób világítás tápegység</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FZS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nappali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF5</t>
   </si>
   <si>
     <t xml:space="preserve">FZ4</t>
@@ -656,112 +655,112 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMB51"/>
+  <dimension ref="A1:AMB49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.62790697674419"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.4651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="6" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="8" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="9" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="23" min="18" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="30" min="25" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="37" min="32" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="44" min="39" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="51" min="46" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="58" min="53" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="65" min="60" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="72" min="67" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="79" min="74" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="86" min="81" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="93" min="88" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="100" min="95" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="107" min="102" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="114" min="109" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="121" min="116" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="128" min="123" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="135" min="130" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="136" min="136" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="142" min="137" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="149" min="144" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="156" min="151" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="163" min="158" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="170" min="165" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="171" min="171" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="177" min="172" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="184" min="179" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="185" min="185" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="191" min="186" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="192" min="192" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="198" min="193" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="199" min="199" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="205" min="200" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="206" min="206" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="212" min="207" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="213" min="213" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="219" min="214" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="220" min="220" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="226" min="221" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="227" min="227" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="233" min="228" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="234" min="234" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="240" min="235" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="241" min="241" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="247" min="242" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="248" min="248" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="254" min="249" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="261" min="256" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="268" min="263" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="269" min="269" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="275" min="270" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="276" min="276" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="282" min="277" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="283" min="283" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="289" min="284" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="290" min="290" style="10" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="929" min="291" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1016" min="930" style="8" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="11" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="6" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="8" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="9" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="23" min="18" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="30" min="25" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="37" min="32" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="44" min="39" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="51" min="46" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="58" min="53" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="65" min="60" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="72" min="67" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="79" min="74" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="86" min="81" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="93" min="88" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="100" min="95" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="107" min="102" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="114" min="109" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="121" min="116" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="128" min="123" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="135" min="130" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="136" min="136" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="142" min="137" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="149" min="144" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="156" min="151" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="163" min="158" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="170" min="165" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="171" min="171" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="177" min="172" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="184" min="179" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="185" min="185" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="191" min="186" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="198" min="193" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="205" min="200" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="206" min="206" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="212" min="207" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="213" min="213" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="219" min="214" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="220" min="220" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="226" min="221" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="227" min="227" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="233" min="228" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="234" min="234" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="240" min="235" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="241" min="241" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="247" min="242" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="248" min="248" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="254" min="249" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="261" min="256" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="268" min="263" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="269" min="269" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="275" min="270" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="276" min="276" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="282" min="277" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="283" min="283" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="289" min="284" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="290" min="290" style="10" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="929" min="291" style="1" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1016" min="930" style="8" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="11" width="11.9348837209302"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,23 +1099,23 @@
       <c r="E3" s="24"/>
       <c r="F3" s="13" t="n">
         <f aca="false">SUM(Villamos!G3:I3)</f>
-        <v>30.392</v>
+        <v>28.7223</v>
       </c>
       <c r="G3" s="23" t="n">
-        <f aca="false">SUM(Villamos!G$6:G$303)</f>
-        <v>10.0816666666667</v>
+        <f aca="false">SUM(Villamos!G$6:G$301)</f>
+        <v>10.0119666666667</v>
       </c>
       <c r="H3" s="23" t="n">
-        <f aca="false">SUM(Villamos!H$6:H$303)</f>
+        <f aca="false">SUM(Villamos!H$6:H$301)</f>
         <v>9.64966666666667</v>
       </c>
       <c r="I3" s="23" t="n">
-        <f aca="false">SUM(Villamos!I$6:I$303)</f>
-        <v>10.6606666666667</v>
+        <f aca="false">SUM(Villamos!I$6:I$301)</f>
+        <v>9.06066666666667</v>
       </c>
       <c r="J3" s="22" t="n">
         <f aca="false">SUM(Villamos!G3:I3)</f>
-        <v>30.392</v>
+        <v>28.7223</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="25"/>
@@ -1258,16 +1257,16 @@
       <c r="E4" s="24"/>
       <c r="F4" s="13"/>
       <c r="G4" s="23" t="n">
-        <f aca="false">COUNTIF(Villamos!G5:G77,"&lt;&gt;")</f>
-        <v>20</v>
+        <f aca="false">COUNTIF(Villamos!G5:G75,"&lt;&gt;")</f>
+        <v>19</v>
       </c>
       <c r="H4" s="23" t="n">
-        <f aca="false">COUNTIF(Villamos!H5:H77,"&lt;&gt;")</f>
+        <f aca="false">COUNTIF(Villamos!H5:H75,"&lt;&gt;")</f>
         <v>15</v>
       </c>
       <c r="I4" s="23" t="n">
-        <f aca="false">COUNTIF(Villamos!I5:I77,"&lt;&gt;")</f>
-        <v>12</v>
+        <f aca="false">COUNTIF(Villamos!I5:I75,"&lt;&gt;")</f>
+        <v>11</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -2152,38 +2151,36 @@
       <c r="AMB10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">3*500</f>
-        <v>1500</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <f aca="false">Villamos!D11*160*300*Villamos!E11/1000/1000/1000</f>
-        <v>0.072</v>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="n">
         <f aca="false">Villamos!$F11*Villamos!$D11</f>
-        <v>0.072</v>
-      </c>
-      <c r="H11" s="0"/>
+        <v>0.098</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="11"/>
       <c r="K11" s="29" t="str">
         <f aca="false">IF(Villamos!G11&lt;&gt;"","L1","")&amp;IF(Villamos!H11&lt;&gt;"","L2","")&amp;IF(Villamos!I11&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>34</v>
@@ -2279,38 +2276,36 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="n">
         <f aca="false">Villamos!$F12*Villamos!$D12</f>
-        <v>0.098</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
+        <v>0.3</v>
+      </c>
       <c r="K12" s="29" t="str">
         <f aca="false">IF(Villamos!G12&lt;&gt;"","L1","")&amp;IF(Villamos!H12&lt;&gt;"","L2","")&amp;IF(Villamos!I12&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L3</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O12" s="0"/>
       <c r="AIT12" s="11"/>
@@ -2403,36 +2398,36 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D13" s="28" t="n">
         <v>3</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="0"/>
+        <v>0.018</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">Villamos!$F13*Villamos!$D13</f>
+        <v>0.054</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7" t="n">
-        <f aca="false">Villamos!$F13*Villamos!$D13</f>
-        <v>0.3</v>
-      </c>
+      <c r="I13" s="11"/>
       <c r="K13" s="29" t="str">
         <f aca="false">IF(Villamos!G13&lt;&gt;"","L1","")&amp;IF(Villamos!H13&lt;&gt;"","L2","")&amp;IF(Villamos!I13&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L1</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O13" s="0"/>
       <c r="AIT13" s="11"/>
@@ -2525,21 +2520,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="28" t="n">
-        <v>0.018</v>
+        <f aca="false">0.01+0.01</f>
+        <v>0.02</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">Villamos!$F14*Villamos!$D14</f>
-        <v>0.054</v>
+        <v>0.02</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="11"/>
@@ -2647,9 +2643,9 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="28" t="n">
@@ -2657,12 +2653,11 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="28" t="n">
-        <f aca="false">0.01+0.01</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G15" s="7" t="n">
         <f aca="false">Villamos!$F15*Villamos!$D15</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="11"/>
@@ -2769,37 +2764,45 @@
       <c r="AMB15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="28" t="n">
-        <v>0.01</v>
+      <c r="E16" s="31" t="n">
+        <v>567</v>
+      </c>
+      <c r="F16" s="30" t="n">
+        <v>3.6</v>
       </c>
       <c r="G16" s="7" t="n">
-        <f aca="false">Villamos!$F16*Villamos!$D16</f>
-        <v>0.01</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
+        <f aca="false">Villamos!$F16*Villamos!$D16/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">Villamos!$F16*Villamos!$D16/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">Villamos!$F16*Villamos!$D16/3</f>
+        <v>1.2</v>
+      </c>
       <c r="K16" s="29" t="str">
         <f aca="false">IF(Villamos!G16&lt;&gt;"","L1","")&amp;IF(Villamos!H16&lt;&gt;"","L2","")&amp;IF(Villamos!I16&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L1L2L3</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O16" s="0"/>
       <c r="AIT16" s="11"/>
@@ -2892,44 +2895,44 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="30" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="31" t="n">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="F17" s="30" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="G17" s="7" t="n">
         <f aca="false">Villamos!$F17*Villamos!$D17/3</f>
-        <v>1.2</v>
+        <v>2.46666666666667</v>
       </c>
       <c r="H17" s="7" t="n">
         <f aca="false">Villamos!$F17*Villamos!$D17/3</f>
-        <v>1.2</v>
+        <v>2.46666666666667</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">Villamos!$F17*Villamos!$D17/3</f>
-        <v>1.2</v>
+        <v>2.46666666666667</v>
       </c>
       <c r="K17" s="29" t="str">
         <f aca="false">IF(Villamos!G17&lt;&gt;"","L1","")&amp;IF(Villamos!H17&lt;&gt;"","L2","")&amp;IF(Villamos!I17&lt;&gt;"","L3","")</f>
         <v>L1L2L3</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="O17" s="0"/>
       <c r="AIT17" s="11"/>
@@ -3022,44 +3025,40 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="30" t="n">
+      <c r="D18" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="31" t="n">
-        <v>55</v>
-      </c>
-      <c r="F18" s="30" t="n">
-        <v>7.4</v>
+      <c r="E18" s="4" t="n">
+        <f aca="false">3*1250+3*1000+1*3250+2*500+2*3750+1*1000</f>
+        <v>19500</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <f aca="false">Villamos!D18*160*300*Villamos!E18/1000/1000/1000</f>
+        <v>0.936</v>
       </c>
       <c r="G18" s="7" t="n">
-        <f aca="false">Villamos!$F18*Villamos!$D18/3</f>
-        <v>2.46666666666667</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <f aca="false">Villamos!$F18*Villamos!$D18/3</f>
-        <v>2.46666666666667</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <f aca="false">Villamos!$F18*Villamos!$D18/3</f>
-        <v>2.46666666666667</v>
-      </c>
+        <f aca="false">Villamos!$F18*Villamos!$D18</f>
+        <v>0.936</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" s="11"/>
       <c r="K18" s="29" t="str">
         <f aca="false">IF(Villamos!G18&lt;&gt;"","L1","")&amp;IF(Villamos!H18&lt;&gt;"","L2","")&amp;IF(Villamos!I18&lt;&gt;"","L3","")</f>
-        <v>L1L2L3</v>
+        <v>L1</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O18" s="0"/>
       <c r="AIT18" s="11"/>
@@ -3152,25 +3151,21 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D19" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">3*1250+3*1000+1*3250+2*500+2*3750+1*1000</f>
-        <v>19500</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <f aca="false">Villamos!D19*160*300*Villamos!E19/1000/1000/1000</f>
-        <v>0.936</v>
+      <c r="E19" s="11"/>
+      <c r="F19" s="28" t="n">
+        <v>0.0253</v>
       </c>
       <c r="G19" s="7" t="n">
         <f aca="false">Villamos!$F19*Villamos!$D19</f>
-        <v>0.936</v>
+        <v>0.0253</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="11"/>
@@ -3179,7 +3174,7 @@
         <v>L1</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>33</v>
@@ -3278,36 +3273,36 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D20" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="7" t="n">
-        <v>1.5</v>
+      <c r="F20" s="28" t="n">
+        <v>0.018</v>
       </c>
       <c r="G20" s="7" t="n">
         <f aca="false">Villamos!$F20*Villamos!$D20</f>
-        <v>1.5</v>
-      </c>
-      <c r="H20" s="11"/>
+        <v>0.018</v>
+      </c>
+      <c r="H20" s="0"/>
       <c r="I20" s="11"/>
       <c r="K20" s="29" t="str">
         <f aca="false">IF(Villamos!G20&lt;&gt;"","L1","")&amp;IF(Villamos!H20&lt;&gt;"","L2","")&amp;IF(Villamos!I20&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O20" s="0"/>
       <c r="AIT20" s="11"/>
@@ -3400,36 +3395,36 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D21" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="E21" s="31"/>
       <c r="F21" s="28" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="G21" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="7" t="n">
         <f aca="false">Villamos!$F21*Villamos!$D21</f>
-        <v>0.023</v>
-      </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="11"/>
+        <v>0.8</v>
+      </c>
       <c r="K21" s="29" t="str">
         <f aca="false">IF(Villamos!G21&lt;&gt;"","L1","")&amp;IF(Villamos!H21&lt;&gt;"","L2","")&amp;IF(Villamos!I21&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L3</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O21" s="0"/>
       <c r="AIT21" s="11"/>
@@ -3522,36 +3517,36 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D22" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="28" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G22" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="7" t="n">
         <f aca="false">Villamos!$F22*Villamos!$D22</f>
-        <v>0.018</v>
-      </c>
-      <c r="H22" s="0"/>
+        <v>1.5</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="K22" s="29" t="str">
         <f aca="false">IF(Villamos!G22&lt;&gt;"","L1","")&amp;IF(Villamos!H22&lt;&gt;"","L2","")&amp;IF(Villamos!I22&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L2</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O22" s="0"/>
       <c r="AIT22" s="11"/>
@@ -3644,32 +3639,32 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="28" t="n">
-        <v>0.1</v>
+      <c r="F23" s="30" t="n">
+        <v>0.5</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="7" t="n">
+      <c r="H23" s="32" t="n">
         <f aca="false">Villamos!$F23*Villamos!$D23</f>
-        <v>0.9</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="11"/>
       <c r="K23" s="29" t="str">
         <f aca="false">IF(Villamos!G23&lt;&gt;"","L1","")&amp;IF(Villamos!H23&lt;&gt;"","L2","")&amp;IF(Villamos!I23&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L2</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -3765,33 +3760,33 @@
       <c r="AMB23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>56</v>
+      <c r="B24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="28" t="n">
-        <v>1.5</v>
+      <c r="E24" s="31"/>
+      <c r="F24" s="30" t="n">
+        <v>0.06</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="7" t="n">
+      <c r="H24" s="0"/>
+      <c r="I24" s="32" t="n">
         <f aca="false">Villamos!$F24*Villamos!$D24</f>
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="11"/>
+        <v>0.06</v>
+      </c>
       <c r="K24" s="29" t="str">
         <f aca="false">IF(Villamos!G24&lt;&gt;"","L1","")&amp;IF(Villamos!H24&lt;&gt;"","L2","")&amp;IF(Villamos!I24&lt;&gt;"","L3","")</f>
-        <v>L2</v>
+        <v>L3</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -3887,8 +3882,8 @@
       <c r="AMB24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8" t="s">
-        <v>46</v>
+      <c r="B25" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>58</v>
@@ -3898,26 +3893,26 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="30" t="n">
-        <v>0.5</v>
+        <v>0.095</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="32" t="n">
+      <c r="H25" s="11"/>
+      <c r="I25" s="7" t="n">
         <f aca="false">Villamos!$F25*Villamos!$D25</f>
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="11"/>
+        <v>0.095</v>
+      </c>
       <c r="K25" s="29" t="str">
         <f aca="false">IF(Villamos!G25&lt;&gt;"","L1","")&amp;IF(Villamos!H25&lt;&gt;"","L2","")&amp;IF(Villamos!I25&lt;&gt;"","L3","")</f>
-        <v>L2</v>
+        <v>L3</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O25" s="0"/>
       <c r="AIT25" s="11"/>
@@ -4009,33 +4004,33 @@
       <c r="AMB25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="30" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="32" t="n">
+      <c r="E26" s="11"/>
+      <c r="F26" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <f aca="false">Villamos!$F26*Villamos!$D26</f>
-        <v>0.06</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="K26" s="29" t="str">
         <f aca="false">IF(Villamos!G26&lt;&gt;"","L1","")&amp;IF(Villamos!H26&lt;&gt;"","L2","")&amp;IF(Villamos!I26&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L1</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -4132,33 +4127,37 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="30" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="G27" s="11"/>
+      <c r="E27" s="4" t="n">
+        <f aca="false">3*2000+1*500</f>
+        <v>6500</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">Villamos!D27*160*300*Villamos!E27/1000/1000/1000</f>
+        <v>0.312</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">Villamos!$F27*Villamos!$D27</f>
+        <v>0.312</v>
+      </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="7" t="n">
-        <f aca="false">Villamos!$F27*Villamos!$D27</f>
-        <v>0.095</v>
-      </c>
+      <c r="I27" s="0"/>
       <c r="K27" s="29" t="str">
         <f aca="false">IF(Villamos!G27&lt;&gt;"","L1","")&amp;IF(Villamos!H27&lt;&gt;"","L2","")&amp;IF(Villamos!I27&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L1</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>34</v>
@@ -4254,40 +4253,36 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D28" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <f aca="false">3*2000+1*500</f>
-        <v>6500</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <f aca="false">Villamos!D28*160*300*Villamos!E28/1000/1000/1000</f>
-        <v>0.312</v>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30" t="n">
+        <v>1.5</v>
       </c>
       <c r="G28" s="7" t="n">
         <f aca="false">Villamos!$F28*Villamos!$D28</f>
-        <v>0.312</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="0"/>
+      <c r="I28" s="11"/>
       <c r="K28" s="29" t="str">
         <f aca="false">IF(Villamos!G28&lt;&gt;"","L1","")&amp;IF(Villamos!H28&lt;&gt;"","L2","")&amp;IF(Villamos!I28&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O28" s="0"/>
       <c r="AIT28" s="11"/>
@@ -4380,36 +4375,36 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30" t="n">
-        <v>1.5</v>
+      <c r="E29" s="11"/>
+      <c r="F29" s="28" t="n">
+        <v>0.01</v>
       </c>
       <c r="G29" s="7" t="n">
         <f aca="false">Villamos!$F29*Villamos!$D29</f>
-        <v>1.5</v>
+        <v>0.01</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="0"/>
       <c r="K29" s="29" t="str">
         <f aca="false">IF(Villamos!G29&lt;&gt;"","L1","")&amp;IF(Villamos!H29&lt;&gt;"","L2","")&amp;IF(Villamos!I29&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O29" s="0"/>
       <c r="AIT29" s="11"/>
@@ -4502,21 +4497,21 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="28" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="G30" s="7" t="n">
         <f aca="false">Villamos!$F30*Villamos!$D30</f>
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="0"/>
@@ -4624,36 +4619,36 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D31" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="28" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G31" s="7" t="n">
+      <c r="E31" s="31"/>
+      <c r="F31" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="32" t="n">
         <f aca="false">Villamos!$F31*Villamos!$D31</f>
-        <v>0.018</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="0"/>
+        <v>1.5</v>
+      </c>
       <c r="K31" s="29" t="str">
         <f aca="false">IF(Villamos!G31&lt;&gt;"","L1","")&amp;IF(Villamos!H31&lt;&gt;"","L2","")&amp;IF(Villamos!I31&lt;&gt;"","L3","")</f>
-        <v>L1</v>
+        <v>L3</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O31" s="0"/>
       <c r="AIT31" s="11"/>
@@ -4746,32 +4741,32 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D32" s="28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="30" t="n">
-        <v>1.5</v>
+      <c r="F32" s="28" t="n">
+        <v>0.1</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="32" t="n">
+      <c r="I32" s="7" t="n">
         <f aca="false">Villamos!$F32*Villamos!$D32</f>
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="K32" s="29" t="str">
         <f aca="false">IF(Villamos!G32&lt;&gt;"","L1","")&amp;IF(Villamos!H32&lt;&gt;"","L2","")&amp;IF(Villamos!I32&lt;&gt;"","L3","")</f>
         <v>L3</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -4868,36 +4863,36 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D33" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="30" t="n">
-        <v>1.5</v>
+        <v>0.095</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="32" t="n">
+      <c r="I33" s="7" t="n">
         <f aca="false">Villamos!$F33*Villamos!$D33</f>
-        <v>1.5</v>
+        <v>0.095</v>
       </c>
       <c r="K33" s="29" t="str">
         <f aca="false">IF(Villamos!G33&lt;&gt;"","L1","")&amp;IF(Villamos!H33&lt;&gt;"","L2","")&amp;IF(Villamos!I33&lt;&gt;"","L3","")</f>
         <v>L3</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O33" s="0"/>
       <c r="AIT33" s="11"/>
@@ -4990,36 +4985,36 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D34" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="28" t="n">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="30" t="n">
+        <v>0.2</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="7" t="n">
         <f aca="false">Villamos!$F34*Villamos!$D34</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K34" s="29" t="str">
         <f aca="false">IF(Villamos!G34&lt;&gt;"","L1","")&amp;IF(Villamos!H34&lt;&gt;"","L2","")&amp;IF(Villamos!I34&lt;&gt;"","L3","")</f>
         <v>L3</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O34" s="0"/>
       <c r="AIT34" s="11"/>
@@ -5112,33 +5107,37 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="27" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D35" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="30" t="n">
-        <v>0.095</v>
+      <c r="E35" s="4" t="n">
+        <f aca="false">7*3250+2*1250</f>
+        <v>25250</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <f aca="false">Villamos!D35*160*300*Villamos!E35/1000/1000/1000</f>
+        <v>1.212</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="7" t="n">
+      <c r="H35" s="7" t="n">
         <f aca="false">Villamos!$F35*Villamos!$D35</f>
-        <v>0.095</v>
-      </c>
+        <v>1.212</v>
+      </c>
+      <c r="I35" s="0"/>
       <c r="K35" s="29" t="str">
         <f aca="false">IF(Villamos!G35&lt;&gt;"","L1","")&amp;IF(Villamos!H35&lt;&gt;"","L2","")&amp;IF(Villamos!I35&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L2</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>34</v>
@@ -5233,34 +5232,34 @@
       <c r="AMB35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="27" t="s">
-        <v>63</v>
+      <c r="B36" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D36" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="30" t="n">
-        <v>0.2</v>
+      <c r="F36" s="28" t="n">
+        <v>0.024</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="7" t="n">
+      <c r="H36" s="7" t="n">
         <f aca="false">Villamos!$F36*Villamos!$D36</f>
-        <v>0.2</v>
-      </c>
+        <v>0.024</v>
+      </c>
+      <c r="I36" s="11"/>
       <c r="K36" s="29" t="str">
         <f aca="false">IF(Villamos!G36&lt;&gt;"","L1","")&amp;IF(Villamos!H36&lt;&gt;"","L2","")&amp;IF(Villamos!I36&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L2</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>34</v>
@@ -5355,35 +5354,31 @@
       <c r="AMB36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>35</v>
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D37" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <f aca="false">7*3250+2*1250</f>
-        <v>25250</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <f aca="false">Villamos!D37*160*300*Villamos!E37/1000/1000/1000</f>
-        <v>1.212</v>
+        <v>2</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="28" t="n">
+        <v>0.004</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="7" t="n">
         <f aca="false">Villamos!$F37*Villamos!$D37</f>
-        <v>1.212</v>
-      </c>
-      <c r="I37" s="0"/>
+        <v>0.008</v>
+      </c>
+      <c r="I37" s="11"/>
       <c r="K37" s="29" t="str">
         <f aca="false">IF(Villamos!G37&lt;&gt;"","L1","")&amp;IF(Villamos!H37&lt;&gt;"","L2","")&amp;IF(Villamos!I37&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>33</v>
@@ -5482,22 +5477,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D38" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="28" t="n">
-        <v>0.024</v>
+        <v>0.01</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="7" t="n">
         <f aca="false">Villamos!$F38*Villamos!$D38</f>
-        <v>0.024</v>
+        <v>0.01</v>
       </c>
       <c r="I38" s="11"/>
       <c r="K38" s="29" t="str">
@@ -5505,7 +5500,7 @@
         <v>L2</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>33</v>
@@ -5604,22 +5599,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="D39" s="28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="28" t="n">
-        <v>0.004</v>
+        <v>0.1</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="7" t="n">
         <f aca="false">Villamos!$F39*Villamos!$D39</f>
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="I39" s="11"/>
       <c r="K39" s="29" t="str">
@@ -5627,13 +5622,13 @@
         <v>L2</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O39" s="0"/>
       <c r="AIT39" s="11"/>
@@ -5726,36 +5721,36 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D40" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="28" t="n">
-        <v>0.01</v>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30" t="n">
+        <v>0.2</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="7" t="n">
+      <c r="H40" s="32" t="n">
         <f aca="false">Villamos!$F40*Villamos!$D40</f>
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="32"/>
       <c r="K40" s="29" t="str">
         <f aca="false">IF(Villamos!G40&lt;&gt;"","L1","")&amp;IF(Villamos!H40&lt;&gt;"","L2","")&amp;IF(Villamos!I40&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O40" s="0"/>
       <c r="AIT40" s="11"/>
@@ -5848,36 +5843,36 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D41" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="28" t="n">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30" t="n">
+        <v>0.095</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="7" t="n">
         <f aca="false">Villamos!$F41*Villamos!$D41</f>
-        <v>0.7</v>
-      </c>
-      <c r="I41" s="11"/>
+        <v>0.095</v>
+      </c>
+      <c r="I41" s="32"/>
       <c r="K41" s="29" t="str">
         <f aca="false">IF(Villamos!G41&lt;&gt;"","L1","")&amp;IF(Villamos!H41&lt;&gt;"","L2","")&amp;IF(Villamos!I41&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O41" s="0"/>
       <c r="AIT41" s="11"/>
@@ -5969,37 +5964,41 @@
       <c r="AMB41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>80</v>
+      <c r="B42" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="D42" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30" t="n">
-        <v>0.2</v>
+      <c r="E42" s="4" t="n">
+        <f aca="false">9*4500</f>
+        <v>40500</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <f aca="false">Villamos!D42*160*300*Villamos!E42/1000/1000/1000</f>
+        <v>1.944</v>
       </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="32" t="n">
+      <c r="H42" s="11"/>
+      <c r="I42" s="7" t="n">
         <f aca="false">Villamos!$F42*Villamos!$D42</f>
-        <v>0.2</v>
-      </c>
-      <c r="I42" s="32"/>
+        <v>1.944</v>
+      </c>
       <c r="K42" s="29" t="str">
         <f aca="false">IF(Villamos!G42&lt;&gt;"","L1","")&amp;IF(Villamos!H42&lt;&gt;"","L2","")&amp;IF(Villamos!I42&lt;&gt;"","L3","")</f>
-        <v>L2</v>
+        <v>L3</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O42" s="0"/>
       <c r="AIT42" s="11"/>
@@ -6091,39 +6090,38 @@
       <c r="AMB42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>60</v>
+      <c r="B43" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="D43" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="G43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="0"/>
       <c r="H43" s="7" t="n">
         <f aca="false">Villamos!$F43*Villamos!$D43</f>
-        <v>0.095</v>
-      </c>
-      <c r="I43" s="32"/>
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="11"/>
       <c r="K43" s="29" t="str">
         <f aca="false">IF(Villamos!G43&lt;&gt;"","L1","")&amp;IF(Villamos!H43&lt;&gt;"","L2","")&amp;IF(Villamos!I43&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="0"/>
       <c r="AIT43" s="11"/>
       <c r="AIU43" s="11"/>
       <c r="AIV43" s="11"/>
@@ -6214,42 +6212,37 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>35</v>
+        <v>81</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D44" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <f aca="false">9*4500</f>
-        <v>40500</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <f aca="false">Villamos!D44*160*300*Villamos!E44/1000/1000/1000</f>
-        <v>1.944</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="7" t="n">
+      <c r="E44" s="31"/>
+      <c r="F44" s="30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="0"/>
+      <c r="H44" s="7" t="n">
         <f aca="false">Villamos!$F44*Villamos!$D44</f>
-        <v>1.944</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="I44" s="32"/>
       <c r="K44" s="29" t="str">
         <f aca="false">IF(Villamos!G44&lt;&gt;"","L1","")&amp;IF(Villamos!H44&lt;&gt;"","L2","")&amp;IF(Villamos!I44&lt;&gt;"","L3","")</f>
-        <v>L3</v>
+        <v>L2</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O44" s="0"/>
+        <v>22</v>
+      </c>
       <c r="AIT44" s="11"/>
       <c r="AIU44" s="11"/>
       <c r="AIV44" s="11"/>
@@ -6340,36 +6333,36 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D45" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="E45" s="31"/>
       <c r="F45" s="28" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G45" s="0"/>
       <c r="H45" s="7" t="n">
         <f aca="false">Villamos!$F45*Villamos!$D45</f>
-        <v>0.01</v>
-      </c>
-      <c r="I45" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="I45" s="32"/>
       <c r="K45" s="29" t="str">
         <f aca="false">IF(Villamos!G45&lt;&gt;"","L1","")&amp;IF(Villamos!H45&lt;&gt;"","L2","")&amp;IF(Villamos!I45&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AIT45" s="11"/>
       <c r="AIU45" s="11"/>
@@ -6459,38 +6452,38 @@
       <c r="AMA45" s="11"/>
       <c r="AMB45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D46" s="28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G46" s="0"/>
-      <c r="H46" s="7" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G46" s="7" t="n">
         <f aca="false">Villamos!$F46*Villamos!$D46</f>
-        <v>0.2</v>
-      </c>
+        <v>0.19</v>
+      </c>
+      <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="K46" s="29" t="str">
         <f aca="false">IF(Villamos!G46&lt;&gt;"","L1","")&amp;IF(Villamos!H46&lt;&gt;"","L2","")&amp;IF(Villamos!I46&lt;&gt;"","L3","")</f>
-        <v>L2</v>
+        <v>L1</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AIT46" s="11"/>
       <c r="AIU46" s="11"/>
@@ -6582,36 +6575,34 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="D47" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="E47" s="31"/>
+        <v>1</v>
+      </c>
       <c r="F47" s="28" t="n">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="G47" s="0"/>
       <c r="H47" s="7" t="n">
         <f aca="false">Villamos!$F47*Villamos!$D47</f>
-        <v>1.5</v>
-      </c>
-      <c r="I47" s="32"/>
+        <v>0.024</v>
+      </c>
       <c r="K47" s="29" t="str">
         <f aca="false">IF(Villamos!G47&lt;&gt;"","L1","")&amp;IF(Villamos!H47&lt;&gt;"","L2","")&amp;IF(Villamos!I47&lt;&gt;"","L3","")</f>
         <v>L2</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AIT47" s="11"/>
       <c r="AIU47" s="11"/>
@@ -6703,36 +6694,34 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="D48" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="30" t="n">
-        <v>0.095</v>
+      <c r="F48" s="28" t="n">
+        <v>0.018</v>
       </c>
       <c r="G48" s="7" t="n">
         <f aca="false">Villamos!$F48*Villamos!$D48</f>
-        <v>0.19</v>
-      </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+        <v>0.036</v>
+      </c>
+      <c r="H48" s="7"/>
       <c r="K48" s="29" t="str">
         <f aca="false">IF(Villamos!G48&lt;&gt;"","L1","")&amp;IF(Villamos!H48&lt;&gt;"","L2","")&amp;IF(Villamos!I48&lt;&gt;"","L3","")</f>
         <v>L1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AIT48" s="11"/>
       <c r="AIU48" s="11"/>
@@ -6822,36 +6811,36 @@
       <c r="AMA48" s="11"/>
       <c r="AMB48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="27" t="s">
-        <v>82</v>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D49" s="28" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="G49" s="0"/>
-      <c r="H49" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G49" s="7" t="n">
         <f aca="false">Villamos!$F49*Villamos!$D49</f>
-        <v>0.024</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="7"/>
       <c r="K49" s="29" t="str">
         <f aca="false">IF(Villamos!G49&lt;&gt;"","L1","")&amp;IF(Villamos!H49&lt;&gt;"","L2","")&amp;IF(Villamos!I49&lt;&gt;"","L3","")</f>
-        <v>L2</v>
+        <v>L1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AIT49" s="11"/>
       <c r="AIU49" s="11"/>
@@ -6941,248 +6930,10 @@
       <c r="AMA49" s="11"/>
       <c r="AMB49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" s="28" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G50" s="7" t="n">
-        <f aca="false">Villamos!$F50*Villamos!$D50</f>
-        <v>0.036</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="K50" s="29" t="str">
-        <f aca="false">IF(Villamos!G50&lt;&gt;"","L1","")&amp;IF(Villamos!H50&lt;&gt;"","L2","")&amp;IF(Villamos!I50&lt;&gt;"","L3","")</f>
-        <v>L1</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AIT50" s="11"/>
-      <c r="AIU50" s="11"/>
-      <c r="AIV50" s="11"/>
-      <c r="AIW50" s="11"/>
-      <c r="AIX50" s="11"/>
-      <c r="AIY50" s="11"/>
-      <c r="AIZ50" s="11"/>
-      <c r="AJA50" s="11"/>
-      <c r="AJB50" s="11"/>
-      <c r="AJC50" s="11"/>
-      <c r="AJD50" s="11"/>
-      <c r="AJE50" s="11"/>
-      <c r="AJF50" s="11"/>
-      <c r="AJG50" s="11"/>
-      <c r="AJH50" s="11"/>
-      <c r="AJI50" s="11"/>
-      <c r="AJJ50" s="11"/>
-      <c r="AJK50" s="11"/>
-      <c r="AJL50" s="11"/>
-      <c r="AJM50" s="11"/>
-      <c r="AJN50" s="11"/>
-      <c r="AJO50" s="11"/>
-      <c r="AJP50" s="11"/>
-      <c r="AJQ50" s="11"/>
-      <c r="AJR50" s="11"/>
-      <c r="AJS50" s="11"/>
-      <c r="AJT50" s="11"/>
-      <c r="AJU50" s="11"/>
-      <c r="AJV50" s="11"/>
-      <c r="AJW50" s="11"/>
-      <c r="AJX50" s="11"/>
-      <c r="AJY50" s="11"/>
-      <c r="AJZ50" s="11"/>
-      <c r="AKA50" s="11"/>
-      <c r="AKB50" s="11"/>
-      <c r="AKC50" s="11"/>
-      <c r="AKD50" s="11"/>
-      <c r="AKE50" s="11"/>
-      <c r="AKF50" s="11"/>
-      <c r="AKG50" s="11"/>
-      <c r="AKH50" s="11"/>
-      <c r="AKI50" s="11"/>
-      <c r="AKJ50" s="11"/>
-      <c r="AKK50" s="11"/>
-      <c r="AKL50" s="11"/>
-      <c r="AKM50" s="11"/>
-      <c r="AKN50" s="11"/>
-      <c r="AKO50" s="11"/>
-      <c r="AKP50" s="11"/>
-      <c r="AKQ50" s="11"/>
-      <c r="AKR50" s="11"/>
-      <c r="AKS50" s="11"/>
-      <c r="AKT50" s="11"/>
-      <c r="AKU50" s="11"/>
-      <c r="AKV50" s="11"/>
-      <c r="AKW50" s="11"/>
-      <c r="AKX50" s="11"/>
-      <c r="AKY50" s="11"/>
-      <c r="AKZ50" s="11"/>
-      <c r="ALA50" s="11"/>
-      <c r="ALB50" s="11"/>
-      <c r="ALC50" s="11"/>
-      <c r="ALD50" s="11"/>
-      <c r="ALE50" s="11"/>
-      <c r="ALF50" s="11"/>
-      <c r="ALG50" s="11"/>
-      <c r="ALH50" s="11"/>
-      <c r="ALI50" s="11"/>
-      <c r="ALJ50" s="11"/>
-      <c r="ALK50" s="11"/>
-      <c r="ALL50" s="11"/>
-      <c r="ALM50" s="11"/>
-      <c r="ALN50" s="11"/>
-      <c r="ALO50" s="11"/>
-      <c r="ALP50" s="11"/>
-      <c r="ALQ50" s="11"/>
-      <c r="ALR50" s="11"/>
-      <c r="ALS50" s="11"/>
-      <c r="ALT50" s="11"/>
-      <c r="ALU50" s="11"/>
-      <c r="ALV50" s="11"/>
-      <c r="ALW50" s="11"/>
-      <c r="ALX50" s="11"/>
-      <c r="ALY50" s="11"/>
-      <c r="ALZ50" s="11"/>
-      <c r="AMA50" s="11"/>
-      <c r="AMB50" s="11"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G51" s="7" t="n">
-        <f aca="false">Villamos!$F51*Villamos!$D51</f>
-        <v>0.1</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="K51" s="29" t="str">
-        <f aca="false">IF(Villamos!G51&lt;&gt;"","L1","")&amp;IF(Villamos!H51&lt;&gt;"","L2","")&amp;IF(Villamos!I51&lt;&gt;"","L3","")</f>
-        <v>L1</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AIT51" s="11"/>
-      <c r="AIU51" s="11"/>
-      <c r="AIV51" s="11"/>
-      <c r="AIW51" s="11"/>
-      <c r="AIX51" s="11"/>
-      <c r="AIY51" s="11"/>
-      <c r="AIZ51" s="11"/>
-      <c r="AJA51" s="11"/>
-      <c r="AJB51" s="11"/>
-      <c r="AJC51" s="11"/>
-      <c r="AJD51" s="11"/>
-      <c r="AJE51" s="11"/>
-      <c r="AJF51" s="11"/>
-      <c r="AJG51" s="11"/>
-      <c r="AJH51" s="11"/>
-      <c r="AJI51" s="11"/>
-      <c r="AJJ51" s="11"/>
-      <c r="AJK51" s="11"/>
-      <c r="AJL51" s="11"/>
-      <c r="AJM51" s="11"/>
-      <c r="AJN51" s="11"/>
-      <c r="AJO51" s="11"/>
-      <c r="AJP51" s="11"/>
-      <c r="AJQ51" s="11"/>
-      <c r="AJR51" s="11"/>
-      <c r="AJS51" s="11"/>
-      <c r="AJT51" s="11"/>
-      <c r="AJU51" s="11"/>
-      <c r="AJV51" s="11"/>
-      <c r="AJW51" s="11"/>
-      <c r="AJX51" s="11"/>
-      <c r="AJY51" s="11"/>
-      <c r="AJZ51" s="11"/>
-      <c r="AKA51" s="11"/>
-      <c r="AKB51" s="11"/>
-      <c r="AKC51" s="11"/>
-      <c r="AKD51" s="11"/>
-      <c r="AKE51" s="11"/>
-      <c r="AKF51" s="11"/>
-      <c r="AKG51" s="11"/>
-      <c r="AKH51" s="11"/>
-      <c r="AKI51" s="11"/>
-      <c r="AKJ51" s="11"/>
-      <c r="AKK51" s="11"/>
-      <c r="AKL51" s="11"/>
-      <c r="AKM51" s="11"/>
-      <c r="AKN51" s="11"/>
-      <c r="AKO51" s="11"/>
-      <c r="AKP51" s="11"/>
-      <c r="AKQ51" s="11"/>
-      <c r="AKR51" s="11"/>
-      <c r="AKS51" s="11"/>
-      <c r="AKT51" s="11"/>
-      <c r="AKU51" s="11"/>
-      <c r="AKV51" s="11"/>
-      <c r="AKW51" s="11"/>
-      <c r="AKX51" s="11"/>
-      <c r="AKY51" s="11"/>
-      <c r="AKZ51" s="11"/>
-      <c r="ALA51" s="11"/>
-      <c r="ALB51" s="11"/>
-      <c r="ALC51" s="11"/>
-      <c r="ALD51" s="11"/>
-      <c r="ALE51" s="11"/>
-      <c r="ALF51" s="11"/>
-      <c r="ALG51" s="11"/>
-      <c r="ALH51" s="11"/>
-      <c r="ALI51" s="11"/>
-      <c r="ALJ51" s="11"/>
-      <c r="ALK51" s="11"/>
-      <c r="ALL51" s="11"/>
-      <c r="ALM51" s="11"/>
-      <c r="ALN51" s="11"/>
-      <c r="ALO51" s="11"/>
-      <c r="ALP51" s="11"/>
-      <c r="ALQ51" s="11"/>
-      <c r="ALR51" s="11"/>
-      <c r="ALS51" s="11"/>
-      <c r="ALT51" s="11"/>
-      <c r="ALU51" s="11"/>
-      <c r="ALV51" s="11"/>
-      <c r="ALW51" s="11"/>
-      <c r="ALX51" s="11"/>
-      <c r="ALY51" s="11"/>
-      <c r="ALZ51" s="11"/>
-      <c r="AMA51" s="11"/>
-      <c r="AMB51" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:N51"/>
+  <autoFilter ref="B5:N49"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B51" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B49" type="list">
       <formula1>hely</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7215,7 +6966,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.7813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7253,7 +7004,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">'Lapos cső'!C1-'Lapos cső'!C3</f>
@@ -7579,13 +7330,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>16</v>
@@ -7593,7 +7344,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>27</v>
@@ -7601,26 +7352,26 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7628,17 +7379,17 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
